--- a/product_dict_list_transposed.xlsx
+++ b/product_dict_list_transposed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,23 +436,23 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Online - 64 инд (8 мес)</t>
+          <t>96 инд. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Интенсив - 192 групповых занятий (4 уровня)</t>
+          <t>96 групп. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Сплит 48 индивидуальных занятия (6 мес)</t>
+          <t>Online 32 инд. зан. (4 мес)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,14 +484,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Online - 96 групповых занятий (12 мес)</t>
+          <t>8 инд. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -500,87 +500,87 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Online - 16 инд (2 мес)</t>
+          <t>Online 8 инд. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>32 индивидуальных занятия (4 мес)</t>
+          <t>Online 24 инд. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>96 групповых занятий (12 мес)</t>
+          <t>1 инд. зан.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>48 групповых занятий (6 мес)</t>
+          <t>2 групп. зан. (рег. взнос)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>16 индивидуальных занятий (2 мес)</t>
+          <t>Online 48 инд. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Сплит 8 индивидуальных занятий (1 мес)</t>
+          <t>Online 144 групп. зан. (18 мес)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -590,29 +590,29 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Китайский 96 групповых занятий (12 мес)</t>
+          <t>Online 96 инд. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>96 индивидуальных занятий (12 мес)</t>
+          <t>24 групп. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -622,52 +622,52 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>144 групповых занятия (18 мес)</t>
+          <t>Китайский 192 групп. зан. (24 мес)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>48 индивидуальных занятия (6 мес)</t>
+          <t>24 инд. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Online - 32 инд (4 мес)</t>
+          <t>Online 1 инд. зан.</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -676,46 +676,46 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>24 индивидуальных занятия (3 мес)</t>
+          <t>Online 8 групп. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Online - 144 групповых занятия (18 мес)</t>
+          <t>Интенсив - 96 групп. зан. (2 уровня)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Online - 8 инд (1 мес)</t>
+          <t>48 инд. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -724,23 +724,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>64 индивидуальных занятия (8 мес)</t>
+          <t>Китайский 96 групп. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>детский - 1 индивидуальное занятие</t>
+          <t>48 групп. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -756,30 +756,30 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>192 групповых занятия (24 мес)</t>
+          <t>16 инд. зан. (2 мес)</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Online - 1 инд </t>
+          <t>Детский 96 групп. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Интенсив - 144 групповых занятий (3 уровня)</t>
+          <t>Online 64 инд. зан. (8 мес)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -798,49 +798,49 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Интенсив - 96 групповых занятий (2 уровня)</t>
+          <t>Китайский 144 групп. зан. (18 мес)</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>8 индивидуальных занятий (1 мес)</t>
+          <t>Китайский 48 групп. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>детский 196 групповых занятия (24 мес)</t>
+          <t>64 инд. зан. (8 мес)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -852,14 +852,14 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Online - 96 инд (12 мес)</t>
+          <t>8 групп. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Китайский 32 индивидуальных занятия (4 мес)</t>
+          <t>192 групп. зан. (24 мес)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>детский 96 групповых занятий (12 мес)</t>
+          <t>Online 48 групп. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -894,20 +894,20 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Online - 2 групповых занятия рег. взнос</t>
+          <t>Китайский 8 инд. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>80 индивидуальных занятия (10 мес)</t>
+          <t>Online 16 инд. зан. (2 мес)</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -932,7 +932,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Китайский 1 индивидуальное занятие</t>
+          <t>Детский 48 групп. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -942,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Китайский 48 индивидуальных занятия (6 мес)</t>
+          <t>Интенсив - 144 групп. зан. (3 уровня)</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -958,36 +958,36 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 индивидуальное занятие </t>
+          <t>Online 2 групп. зан. (рег. взнос)</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Разговорный клуб - 8 групповых занятия (1 мес)</t>
+          <t>Online 96 групп. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1 индивидуальное занятие (1р.)</t>
+          <t>32 инд. зан. (4 мес)</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сплит 1 индивидуальное занятие </t>
+          <t>144 групп. зан. (18 мес)</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>8 групповых занятий (1 мес)</t>
+          <t>1 инд. зан. (1р.)</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1038,20 +1038,20 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>детский 48 групповых занятий (6 мес)</t>
+          <t>Разг. клуб 8 зан. (2 мес)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1060,256 +1060,32 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Online - 1 инд (1р.)</t>
+          <t>Интенсив - 192 групп. зан. (4 уровня)</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Online - 48 групповых занятий (6 мес)</t>
+          <t>Детский 4 групп. зан.</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>детский 144 групповых занятия (18 мес)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Online - 192 групповых занятий (24 мес)</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>24 групповых занятий (3 мес)</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>детский - 32 индивидуальных занятия (4 мес)</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Online - 48 инд (6 мес)</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Сплит 96 индивидуальных занятий (12 мес)</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Китайский 48 групповых занятий (6 мес)</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Сплит 32 индивидуальных занятия (4 мес)</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Сплит 64 индивидуальных занятия (8 мес)</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Online - 8 групповых занятий (1 мес)</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Рег. взнос - 2 групповых занятия</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Сплит китайский - 32 индивидуальных занятия (4 мес)</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Китайский 144 групповых занятия (18 мес)</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Online - 24 инд (3 мес)</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>

--- a/product_dict_list_transposed.xlsx
+++ b/product_dict_list_transposed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>96 инд. зан. (12 мес)</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Продукт</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Михалкин и Перхова (Аксёнова)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Неведомская и Коробко (Ризаева)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Данилов и Чудук (Зарецкая)</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>96 групп. зан. (12 мес)</t>
+          <t>1 инд. зан.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Online 32 инд. зан. (4 мес)</t>
+          <t>Основная 60 минут</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -478,13 +487,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>8 инд. зан. (1 мес)</t>
+          <t>1 инд. зан. (1р.)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -494,13 +506,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Online 8 инд. зан. (1 мес)</t>
+          <t>144 групп. зан. (18 мес)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -510,13 +525,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Online 24 инд. зан. (3 мес)</t>
+          <t>Основная 90 минут</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -526,13 +544,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1 инд. зан.</t>
+          <t>Онлайн 60 мин</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -542,109 +563,130 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2 групп. зан. (рег. взнос)</t>
+          <t>16 инд. зан. (2 мес)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Online 48 инд. зан. (6 мес)</t>
+          <t>192 групп. зан. (24 мес)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.35</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Online 144 групп. зан. (18 мес)</t>
+          <t>2 групп. зан. (рег. взнос)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Online 96 инд. зан. (12 мес)</t>
+          <t>24 групп. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>24 групп. зан. (3 мес)</t>
+          <t>24 инд. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Китайский 192 групп. зан. (24 мес)</t>
+          <t>32 инд. зан. (4 мес)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>24 инд. зан. (3 мес)</t>
+          <t>4 групп. зан. (рег. взнос)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -654,93 +696,111 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Online 1 инд. зан.</t>
+          <t>48 групп. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6.569999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Online 8 групп. зан. (1 мес)</t>
+          <t>48 инд. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Интенсив - 96 групп. зан. (2 уровня)</t>
+          <t>64 инд. зан. (8 мес)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>48 инд. зан. (6 мес)</t>
+          <t>8 групп. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Китайский 96 групп. зан. (12 мес)</t>
+          <t>8 инд. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>48 групп. зан. (6 мес)</t>
+          <t>80 инд. зан. (10 мес)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -750,45 +810,54 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>16 инд. зан. (2 мес)</t>
+          <t>96 групп. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.29</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Детский 96 групп. зан. (12 мес)</t>
+          <t>96 инд. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Online 64 инд. зан. (8 мес)</t>
+          <t>Online  80 инд. зан. (10 мес)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -798,13 +867,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Китайский 144 групп. зан. (18 мес)</t>
+          <t>Online 1 инд. зан.</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -814,13 +886,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Китайский 48 групп. зан. (6 мес)</t>
+          <t>Online 1 инд. зан. (1р.)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -830,45 +905,54 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>64 инд. зан. (8 мес)</t>
+          <t>Online 144 групп. зан. (18 мес)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>8 групп. зан. (1 мес)</t>
+          <t>Online 16 инд. зан. (2 мес)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>192 групп. зан. (24 мес)</t>
+          <t>Online 192 групп. зан. (24 мес)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -878,29 +962,35 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Online 48 групп. зан. (6 мес)</t>
+          <t>Online 2 групп. зан. (рег. взнос)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Китайский 8 инд. зан. (1 мес)</t>
+          <t>Online 24 групп. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -910,77 +1000,92 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Online 16 инд. зан. (2 мес)</t>
+          <t>Online 24 инд. зан. (3 мес)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Детский 48 групп. зан. (6 мес)</t>
+          <t>Online 32 инд. зан. (4 мес)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Интенсив - 144 групп. зан. (3 уровня)</t>
+          <t>Online 48 групп. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Online 2 групп. зан. (рег. взнос)</t>
+          <t>Online 48 инд. зан. (6 мес)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Online 96 групп. зан. (12 мес)</t>
+          <t>Online 64 инд. зан. (8 мес)</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -990,13 +1095,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>32 инд. зан. (4 мес)</t>
+          <t>Online 8 групп. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1007,28 +1115,34 @@
       </c>
       <c r="D36" t="n">
         <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>144 групп. зан. (18 мес)</t>
+          <t>Online 8 инд. зан. (1 мес)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1 инд. зан. (1р.)</t>
+          <t>Online 96 групп. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1039,28 +1153,34 @@
       </c>
       <c r="D38" t="n">
         <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Разг. клуб 8 зан. (2 мес)</t>
+          <t>Online 96 инд. зан. (12 мес)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Интенсив - 192 групп. зан. (4 уровня)</t>
+          <t>Online китайский 1 инд</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1070,22 +1190,1605 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
+          <t>Online китайский 16 инд (2 мес)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 24 инд (3 мес)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 32 инд (4 мес)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 48 инд (6 мес)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 64 инд (8 мес)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 8 инд (1 мес)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 80 инд (10 мес)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Online китайский 96 инд (12 мес)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Детский 144 групп. зан. (18 мес)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Детский 192 групп. зан.  (24 мес)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Детский 2 групп. зан. (рег. взнос)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Детский 24 групп. зан. (3 мес)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>Детский 4 групп. зан.</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Детский 48 групп. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Детский 8 групп. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Детский 96 групп. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Детский online 144 групп. зан. (18 мес)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Детский online 192 групп. зан. (24 мес)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Детский online 2 групп. зан. (рег. взнос)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Детский online 48 групп. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Детский online 8 групп. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Детский online 96 групп. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Детский лагерь - 1 день</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Детский лагерь - 12 дней</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Детский лагерь - 24 занятия</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Детский лагерь - 5 занятий</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Детский лагерь - 8 дней</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Интенсив - 144 групп. зан. (3 уровня)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Интенсив - 192 групп. зан. (4 уровня)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Интенсив - 24 групп. зан. (1/2 уровня)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Интенсив - 48 групп. зан. (1 уровень)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Интенсив - 96 групп. зан. (2 уровня)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 1 инд. зан.</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 144 групп. зан. (18 мес)</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 16 инд. зан. (2 мес)</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 192 групп. зан. (24 мес)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 2 групп. зан. (рег. взнос)</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 32 инд. зан. (4 мес)</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 48 групп. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 48 инд. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 64 инд. зан. (8 мес)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 8 групп. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 8 инд. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 96 групп. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Китайский 96 инд. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Корпоративные - 48 занятий (6 мес)</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Корпоративные - 96 занятий (12 мес)</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Корпоративные online - 48 занятий (6 мес)</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Корпоративные online - 96 занятий (12 мес)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Корпоративные за МКАД - 48 занятий (6 мес) </t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Корпоративные за МКАД - 96 занятий (12 мес) </t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Разг. клуб 16 зан. (4 мес)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Разг. клуб 24 зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Разг. клуб 48 зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Разг. клуб 8 зан. (2 мес)</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 1 инд. зан.</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 16 инд. зан. (2 мес)</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 24 инд. зан. (3 мес)</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 32 инд. зан. (4 мес)</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 48 инд. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 64 инд. зан. (8 мес)</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 8 инд. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Сплит 96 инд. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 1 инд. зан.</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 16 инд. зан. (2 мес)</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 32 инд. зан. (4 мес)</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 48 инд. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 64 инд. зан. (8 мес)</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 8 инд. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Сплит online 96 инд. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 1 инд. зан.</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 16 инд. зан. (2 мес)</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 24 инд. зан. (3 мес)</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 32 инд. зан. (4 мес)</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 48 инд. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 64 инд. зан. (8 мес)</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 8 инд. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Сплит кит online 96 инд. зан. (12 мес)</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Сплит китайский - 1 инд. зан.</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Сплит китайский - 16 инд. зан. (2 мес)</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Сплит китайский - 32 инд. зан. (4 мес)</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Сплит китайский - 48 инд. зан. (6 мес)</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Сплит китайский - 64 инд. зан. (8 мес)</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Сплит китайский - 8 инд. зан. (1 мес)</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0</v>
       </c>
     </row>
